--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_IRE.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_IRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>92</v>
@@ -530,12 +530,14 @@
           <t>5844</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" t="n">
         <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -549,7 +551,9 @@
           <t>7122</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
@@ -571,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +596,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +651,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -661,12 +665,14 @@
           <t>6783</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +690,9 @@
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -736,7 +744,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>73</v>
@@ -793,7 +801,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
@@ -803,192 +811,219 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K J O'Brien</t>
+          <t>P J Moor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C Olphert</t>
+          <t>K J O'Brien</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6671</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>153</v>
+      </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>W T S Porterfield</t>
+          <t>C Olphert</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3418</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>148</v>
-      </c>
+          <t>6671</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>N A Rock</t>
+          <t>W T S Porterfield</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6148</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>3418</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Simi Singh</t>
+          <t>N A Rock</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P R Stirling</t>
+          <t>Simi Singh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3586</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>H T Tector</t>
+          <t>P R Stirling</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5476</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E26" t="n">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L J Tucker</t>
+          <t>H T Tector</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>5476</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B C White</t>
+          <t>L J Tucker</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6049</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>35</v>
+      </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>B C White</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6049</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>C A Young</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>4328</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>36</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E30" t="n">
         <v>54</v>
       </c>
     </row>

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_IRE.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_IRE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
